--- a/Similitudes.xlsx
+++ b/Similitudes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Septimo Semestre\Monitoria\app_back_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA65F5B-4FB9-46A4-9F1C-9E7AE5D8B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A878D49-2710-4E35-B71D-C332A04C5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC804700-501E-4F8B-8408-5D25AD8B7C0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Español</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>En-Es</t>
-  </si>
-  <si>
-    <t>Es-Pt</t>
-  </si>
-  <si>
-    <t>En-Pt</t>
   </si>
   <si>
     <t>Como usar twitter</t>
@@ -510,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8ECB00-08F8-4F13-95FB-199F389AB642}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +518,7 @@
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,385 +531,439 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Similitudes.xlsx
+++ b/Similitudes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Septimo Semestre\Monitoria\app_back_questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\monitoria\app_back_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A878D49-2710-4E35-B71D-C332A04C5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062D3BAE-19B0-48CC-B387-AD86397B7875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC804700-501E-4F8B-8408-5D25AD8B7C0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>Español</t>
   </si>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>#Español</t>
+  </si>
+  <si>
+    <t>#Portugues</t>
+  </si>
+  <si>
+    <t>Solo tiene una leccion más y le falta test en portugues</t>
+  </si>
+  <si>
+    <t>Tiene una lesson de más en portugues pero por lo demas son lo mismo</t>
+  </si>
+  <si>
+    <t>Son los mismo pero en español tiene dos lessons mas al final</t>
+  </si>
+  <si>
+    <t>En español tiene más lessons pero todas las lessons en portugues estan en español</t>
+  </si>
+  <si>
+    <t>Algunas Lessons concuerdan pero no todas</t>
+  </si>
+  <si>
+    <t>Le añadieron una leccion al curso en español, ademas del test, de resto todo igual</t>
+  </si>
+  <si>
+    <t>Es lo mismo, solo que en español añadieron dos lessons más</t>
+  </si>
+  <si>
+    <t>Mismo Pt-Es</t>
+  </si>
+  <si>
+    <t>Mismo con Test en Es-pt</t>
+  </si>
+  <si>
+    <t>Total Iguales</t>
   </si>
 </sst>
 </file>
@@ -168,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,21 +547,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8ECB00-08F8-4F13-95FB-199F389AB642}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -526,13 +573,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -542,8 +601,22 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <f>IF(D2=E2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(D2=E2-1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -553,14 +626,28 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
+      <c r="D3">
+        <v>32</v>
       </c>
       <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G35" si="0">IF(D3=E3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="1">IF(D3=E3-1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -570,8 +657,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -581,8 +682,22 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -592,8 +707,22 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -603,11 +732,28 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -617,8 +763,22 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -628,8 +788,22 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -639,8 +813,22 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -650,8 +838,22 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -661,14 +863,28 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
+      <c r="D12">
+        <v>54</v>
       </c>
       <c r="E12">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -678,8 +894,22 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -689,8 +919,22 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -700,14 +944,31 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
+      <c r="D15">
+        <v>25</v>
       </c>
       <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -717,8 +978,22 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -728,8 +1003,22 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -739,8 +1028,22 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -750,8 +1053,22 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -761,14 +1078,31 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
+      <c r="D20">
+        <v>35</v>
       </c>
       <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -778,11 +1112,31 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -792,8 +1146,25 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -803,8 +1174,25 @@
       <c r="C23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -814,14 +1202,28 @@
       <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
-        <v>38</v>
+      <c r="D24">
+        <v>11</v>
       </c>
       <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -831,14 +1233,28 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
-        <v>38</v>
+      <c r="D25">
+        <v>23</v>
       </c>
       <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -848,8 +1264,22 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -859,14 +1289,28 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>38</v>
+      <c r="D27">
+        <v>24</v>
       </c>
       <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -876,14 +1320,28 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
-        <v>38</v>
+      <c r="D28">
+        <v>25</v>
       </c>
       <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -893,8 +1351,22 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -904,8 +1376,22 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -915,8 +1401,22 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -926,8 +1426,25 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -937,14 +1454,28 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="s">
-        <v>38</v>
+      <c r="D33">
+        <v>8</v>
       </c>
       <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -954,8 +1485,25 @@
       <c r="C34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -964,6 +1512,39 @@
       </c>
       <c r="C35" t="s">
         <v>38</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>SUM(G2:G35)</f>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H2:H35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1">
+        <f>H36+G36</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
